--- a/docs/Motherboard_connections.xlsx
+++ b/docs/Motherboard_connections.xlsx
@@ -581,7 +581,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/docs/Motherboard_connections.xlsx
+++ b/docs/Motherboard_connections.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="68">
   <si>
     <t>Digital board</t>
   </si>
@@ -189,13 +189,52 @@
   </si>
   <si>
     <t>EN pin</t>
+  </si>
+  <si>
+    <t>Thinkness</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>!!! REVERSE PCB !!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +267,18 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +300,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,6 +330,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -282,11 +374,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -295,6 +384,23 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -578,1427 +684,1621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="M25" sqref="M25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" style="2" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" style="2"/>
-    <col min="9" max="9" width="11.26953125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.08984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="2"/>
-    <col min="14" max="14" width="10.81640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.08984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.6328125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="8.7265625" style="2"/>
-    <col min="19" max="19" width="10.08984375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="4.08984375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.7265625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="8.7265625" style="2"/>
-    <col min="24" max="24" width="10.36328125" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="11.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.08984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="10.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.08984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6328125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7265625" style="1"/>
+    <col min="19" max="19" width="10.08984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.08984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="8.7265625" style="1"/>
+    <col min="24" max="24" width="10.36328125" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="U1" s="1" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>1</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="S3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="2">
         <v>2</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="2">
         <v>1</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3+2</f>
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>C3+2</f>
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>G3+2</f>
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f>H3+2</f>
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>L3+2</f>
         <v>4</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f>M3+2</f>
         <v>3</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
         <f>Q3+2</f>
         <v>4</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <f>R3+2</f>
         <v>3</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="S4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <f>V3+2</f>
         <v>4</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <f>W3+2</f>
         <v>3</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" ref="B5:B22" si="0">B4+2</f>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B20" si="0">B4+2</f>
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5:C22" si="1">C4+2</f>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C20" si="1">C4+2</f>
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" ref="G5:G20" si="2">G4+2</f>
         <v>6</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H20" si="3">H4+2</f>
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" ref="L5:L20" si="4">L4+2</f>
         <v>6</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <f t="shared" ref="M5:M20" si="5">M4+2</f>
         <v>5</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <f t="shared" ref="Q5:Q20" si="6">Q4+2</f>
         <v>6</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <f t="shared" ref="R5:R20" si="7">R4+2</f>
         <v>5</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="S5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <f t="shared" ref="V5:V20" si="8">V4+2</f>
         <v>6</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <f t="shared" ref="W5:W20" si="9">W4+2</f>
         <v>5</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="S6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="I7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U7" s="3" t="s">
+      <c r="S7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="2">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U8" s="3" t="s">
+      <c r="S8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="2">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="2">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U9" s="3" t="s">
+      <c r="S9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="2">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="2">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="X9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="I10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="2">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U10" s="3" t="s">
+      <c r="S10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="2">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="3" t="s">
+      <c r="S11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="2">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="2">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="X11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="8" t="s">
+      <c r="N12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="2">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="U12" s="3" t="s">
+      <c r="S12" s="2"/>
+      <c r="U12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="2">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="2">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="X12" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="8" t="s">
+      <c r="I13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" s="3" t="s">
+      <c r="N13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="2">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="U13" s="3" t="s">
+      <c r="S13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="2">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="8" t="s">
+      <c r="I14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="N14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="2">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="X14" s="3"/>
+      <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="8" t="s">
+      <c r="I15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="N15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="2">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="U15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="2">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="2">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="X15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="I16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="N16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="2">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V16" s="3">
+      <c r="U16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="2">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="X16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="I17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3">
+      <c r="N17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="2">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="U17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="2">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="2">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="X17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="I18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="8" t="s">
+      <c r="N18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="2">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="2">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="2">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="2">
         <f t="shared" si="9"/>
         <v>31</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="X18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="8" t="s">
+      <c r="I19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="3" t="s">
+      <c r="N19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="2">
         <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="2">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="2">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="2">
         <f t="shared" si="9"/>
         <v>33</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="3" t="s">
+      <c r="N20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="2">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="2">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="2">
         <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="X20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="K22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="P22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="U22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="9"/>
+      <c r="X23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="11"/>
+      <c r="S24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="W24" s="9"/>
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13">
+        <f>B24/2+D24+F24+G24/2</f>
+        <v>22.6</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13">
+        <f>G24/2+I24+K24+L24/2</f>
+        <v>24.6</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13">
+        <f>L24/2+N24+S24+Q24/2</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13">
+        <f>Q24/2+P24+U24</f>
+        <v>27.8</v>
+      </c>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="2" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="2" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="25">
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>

--- a/docs/Motherboard_connections.xlsx
+++ b/docs/Motherboard_connections.xlsx
@@ -224,10 +224,10 @@
     <t>12</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>!!! REVERSE PCB !!!</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -384,21 +384,21 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +687,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:Q25"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,36 +715,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="U1" s="9" t="s">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="U1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -2081,139 +2081,139 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="K22" s="9" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="K22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="P22" s="9" t="s">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="P22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="U22" s="9" t="s">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="U22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="14"/>
       <c r="N23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="R23" s="9"/>
+      <c r="R23" s="14"/>
       <c r="S23" s="2" t="s">
         <v>58</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="V23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="9"/>
+      <c r="W23" s="14"/>
       <c r="X23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
+      <c r="M24" s="15"/>
+      <c r="N24" s="10" t="s">
         <v>62</v>
       </c>
       <c r="P24">
         <v>15</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" s="14" t="s">
+      <c r="R24" s="15"/>
+      <c r="S24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="W24" s="9"/>
+      <c r="W24" s="14"/>
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="10"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="13">
         <f>B24/2+D24+F24+G24/2</f>
         <v>22.6</v>
@@ -2232,7 +2232,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13">
         <f>L24/2+N24+S24+Q24/2</f>
-        <v>14.100000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -2247,12 +2247,12 @@
       <c r="U25" s="13"/>
     </row>
     <row r="26" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="P26" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
+      <c r="P26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -2279,6 +2279,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="P26:S26"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
@@ -2295,15 +2304,6 @@
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
